--- a/data/results/VDA_Sim_subjectiveResults_all.xlsx
+++ b/data/results/VDA_Sim_subjectiveResults_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga84kuj\Documents\R\VDA_Sim\data\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F71D6-10F9-4E9D-8E3A-6303EC7735A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09928D85-4414-4C2C-9EC6-7A78A29B4DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1065" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summ_vorbefragung" sheetId="2" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="inferential_nachbefragung" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">inferential_nachbefragung!$A$1:$AC$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">inferential_nachbefragung!$A$1:$AC$21</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="637">
   <si>
     <t>variable</t>
   </si>
@@ -486,7 +486,10 @@
     <t>CTAM_PS</t>
   </si>
   <si>
-    <t>System_sum</t>
+    <t>SU_System_sum</t>
+  </si>
+  <si>
+    <t>SU_Role_sum</t>
   </si>
   <si>
     <t>group</t>
@@ -816,6 +819,15 @@
     <t>L2 H-on</t>
   </si>
   <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>L2 H-off</t>
+  </si>
+  <si>
+    <t>L2 H-on</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
@@ -1302,6 +1314,30 @@
     <t>L2Komponenten.Hoff.</t>
   </si>
   <si>
+    <t>Role_u_01</t>
+  </si>
+  <si>
+    <t>Role_u_02</t>
+  </si>
+  <si>
+    <t>Role_u_03</t>
+  </si>
+  <si>
+    <t>Role_u_04</t>
+  </si>
+  <si>
+    <t>Role_u_08</t>
+  </si>
+  <si>
+    <t>Role_u_09</t>
+  </si>
+  <si>
+    <t>Role_u_10</t>
+  </si>
+  <si>
+    <t>Role_u_11</t>
+  </si>
+  <si>
     <t>System_u_01</t>
   </si>
   <si>
@@ -1329,36 +1365,12 @@
     <t>System_u_09</t>
   </si>
   <si>
-    <t>System_u_10</t>
-  </si>
-  <si>
-    <t>System_u_11</t>
-  </si>
-  <si>
-    <t>System_u_12</t>
-  </si>
-  <si>
-    <t>System_u_13</t>
-  </si>
-  <si>
-    <t>System_u_14</t>
-  </si>
-  <si>
-    <t>System_u_15</t>
-  </si>
-  <si>
     <t>System_u_16</t>
   </si>
   <si>
     <t>System_u_17</t>
   </si>
   <si>
-    <t>System_u_18</t>
-  </si>
-  <si>
-    <t>System_u_19</t>
-  </si>
-  <si>
     <t>NDRTs.NDRT1.</t>
   </si>
   <si>
@@ -1425,6 +1437,30 @@
     <t>L2Komponenten.Hoff.</t>
   </si>
   <si>
+    <t>Role_u_01</t>
+  </si>
+  <si>
+    <t>Role_u_02</t>
+  </si>
+  <si>
+    <t>Role_u_03</t>
+  </si>
+  <si>
+    <t>Role_u_04</t>
+  </si>
+  <si>
+    <t>Role_u_08</t>
+  </si>
+  <si>
+    <t>Role_u_09</t>
+  </si>
+  <si>
+    <t>Role_u_10</t>
+  </si>
+  <si>
+    <t>Role_u_11</t>
+  </si>
+  <si>
     <t>System_u_01</t>
   </si>
   <si>
@@ -1452,36 +1488,12 @@
     <t>System_u_09</t>
   </si>
   <si>
-    <t>System_u_10</t>
-  </si>
-  <si>
-    <t>System_u_11</t>
-  </si>
-  <si>
-    <t>System_u_12</t>
-  </si>
-  <si>
-    <t>System_u_13</t>
-  </si>
-  <si>
-    <t>System_u_14</t>
-  </si>
-  <si>
-    <t>System_u_15</t>
-  </si>
-  <si>
     <t>System_u_16</t>
   </si>
   <si>
     <t>System_u_17</t>
   </si>
   <si>
-    <t>System_u_18</t>
-  </si>
-  <si>
-    <t>System_u_19</t>
-  </si>
-  <si>
     <t>NDRTs.NDRT1.</t>
   </si>
   <si>
@@ -1548,6 +1560,30 @@
     <t>L2Komponenten.Hoff.</t>
   </si>
   <si>
+    <t>Role_u_01</t>
+  </si>
+  <si>
+    <t>Role_u_02</t>
+  </si>
+  <si>
+    <t>Role_u_03</t>
+  </si>
+  <si>
+    <t>Role_u_04</t>
+  </si>
+  <si>
+    <t>Role_u_08</t>
+  </si>
+  <si>
+    <t>Role_u_09</t>
+  </si>
+  <si>
+    <t>Role_u_10</t>
+  </si>
+  <si>
+    <t>Role_u_11</t>
+  </si>
+  <si>
     <t>System_u_01</t>
   </si>
   <si>
@@ -1575,36 +1611,12 @@
     <t>System_u_09</t>
   </si>
   <si>
-    <t>System_u_10</t>
-  </si>
-  <si>
-    <t>System_u_11</t>
-  </si>
-  <si>
-    <t>System_u_12</t>
-  </si>
-  <si>
-    <t>System_u_13</t>
-  </si>
-  <si>
-    <t>System_u_14</t>
-  </si>
-  <si>
-    <t>System_u_15</t>
-  </si>
-  <si>
     <t>System_u_16</t>
   </si>
   <si>
     <t>System_u_17</t>
   </si>
   <si>
-    <t>System_u_18</t>
-  </si>
-  <si>
-    <t>System_u_19</t>
-  </si>
-  <si>
     <t>Var3</t>
   </si>
   <si>
@@ -1830,7 +1842,10 @@
     <t>CTAM_PS</t>
   </si>
   <si>
-    <t>System_sum</t>
+    <t>SU_System_sum</t>
+  </si>
+  <si>
+    <t>SU_Role_sum</t>
   </si>
   <si>
     <t>lev_Df_group</t>
@@ -1962,17 +1977,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3998,9 +4003,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:H112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4008,7 +4015,7 @@
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="3.140625" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="8" width="6.140625" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
@@ -4019,28 +4026,28 @@
         <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4048,7 +4055,7 @@
         <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2">
         <v>20</v>
@@ -4069,7 +4076,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4077,7 +4084,7 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -4098,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4106,7 +4113,7 @@
         <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -4127,7 +4134,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -4135,7 +4142,7 @@
         <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -4156,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4164,7 +4171,7 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -4185,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4193,7 +4200,7 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -4214,7 +4221,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4222,7 +4229,7 @@
         <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -4243,7 +4250,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -4251,7 +4258,7 @@
         <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -4272,7 +4279,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -4280,7 +4287,7 @@
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -4301,7 +4308,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,7 +4316,7 @@
         <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -4330,7 +4337,7 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4338,7 +4345,7 @@
         <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -4359,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4367,7 +4374,7 @@
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -4388,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4396,7 +4403,7 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -4417,7 +4424,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4425,7 +4432,7 @@
         <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -4446,7 +4453,7 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4454,7 +4461,7 @@
         <v>121</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -4475,7 +4482,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4483,7 +4490,7 @@
         <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -4504,7 +4511,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4512,7 +4519,7 @@
         <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -4533,7 +4540,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4541,7 +4548,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -4562,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4570,7 +4577,7 @@
         <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -4591,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4599,7 +4606,7 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -4620,7 +4627,7 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4628,7 +4635,7 @@
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -4649,7 +4656,7 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4657,7 +4664,7 @@
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -4678,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="I23" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4686,7 +4693,7 @@
         <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -4707,7 +4714,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4715,7 +4722,7 @@
         <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -4736,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4744,7 +4751,7 @@
         <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4756,7 +4763,7 @@
         <v>65535</v>
       </c>
       <c r="I26" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4764,7 +4771,7 @@
         <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -4785,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4793,7 +4800,7 @@
         <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -4814,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4822,7 +4829,7 @@
         <v>126</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4834,7 +4841,7 @@
         <v>65535</v>
       </c>
       <c r="I29" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4842,7 +4849,7 @@
         <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -4863,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4871,7 +4878,7 @@
         <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -4892,7 +4899,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4900,7 +4907,7 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4912,7 +4919,7 @@
         <v>65535</v>
       </c>
       <c r="I32" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4920,7 +4927,7 @@
         <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C33">
         <v>20</v>
@@ -4941,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="I33" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4949,7 +4956,7 @@
         <v>127</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -4970,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4978,7 +4985,7 @@
         <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4990,7 +4997,7 @@
         <v>65535</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4998,7 +5005,7 @@
         <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C36">
         <v>20</v>
@@ -5019,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5027,7 +5034,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C37">
         <v>20</v>
@@ -5048,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5056,7 +5063,7 @@
         <v>129</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5068,7 +5075,7 @@
         <v>65535</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5076,7 +5083,7 @@
         <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -5097,7 +5104,7 @@
         <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5105,7 +5112,7 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -5126,7 +5133,7 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5134,7 +5141,7 @@
         <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5146,7 +5153,7 @@
         <v>65535</v>
       </c>
       <c r="I41" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5154,7 +5161,7 @@
         <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -5175,7 +5182,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5183,7 +5190,7 @@
         <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -5204,7 +5211,7 @@
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5212,7 +5219,7 @@
         <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5224,7 +5231,7 @@
         <v>65535</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5232,7 +5239,7 @@
         <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -5253,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5261,7 +5268,7 @@
         <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -5282,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5290,7 +5297,7 @@
         <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5302,7 +5309,7 @@
         <v>65535</v>
       </c>
       <c r="I47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5310,7 +5317,7 @@
         <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -5331,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5339,7 +5346,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -5360,7 +5367,7 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5368,7 +5375,7 @@
         <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -5389,7 +5396,7 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5397,7 +5404,7 @@
         <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C51">
         <v>20</v>
@@ -5418,7 +5425,7 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5426,7 +5433,7 @@
         <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C52">
         <v>20</v>
@@ -5447,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5455,7 +5462,7 @@
         <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -5476,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5484,7 +5491,7 @@
         <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -5505,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5513,7 +5520,7 @@
         <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -5534,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5542,7 +5549,7 @@
         <v>135</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -5554,7 +5561,7 @@
         <v>65535</v>
       </c>
       <c r="I56" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5562,7 +5569,7 @@
         <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C57">
         <v>19</v>
@@ -5583,7 +5590,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5591,7 +5598,7 @@
         <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -5612,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5620,7 +5627,7 @@
         <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -5632,7 +5639,7 @@
         <v>65535</v>
       </c>
       <c r="I59" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5640,7 +5647,7 @@
         <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C60">
         <v>19</v>
@@ -5661,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5669,7 +5676,7 @@
         <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -5690,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5698,7 +5705,7 @@
         <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -5710,7 +5717,7 @@
         <v>65535</v>
       </c>
       <c r="I62" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5718,7 +5725,7 @@
         <v>137</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C63">
         <v>19</v>
@@ -5739,7 +5746,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5747,7 +5754,7 @@
         <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C64">
         <v>20</v>
@@ -5768,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -5776,7 +5783,7 @@
         <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -5788,7 +5795,7 @@
         <v>65535</v>
       </c>
       <c r="I65" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -5796,7 +5803,7 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66">
         <v>19</v>
@@ -5817,7 +5824,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5825,7 +5832,7 @@
         <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -5837,7 +5844,7 @@
         <v>65535</v>
       </c>
       <c r="I67" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5845,7 +5852,7 @@
         <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -5857,7 +5864,7 @@
         <v>65535</v>
       </c>
       <c r="I68" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5865,7 +5872,7 @@
         <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C69">
         <v>20</v>
@@ -5886,7 +5893,7 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5894,7 +5901,7 @@
         <v>139</v>
       </c>
       <c r="B70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C70">
         <v>20</v>
@@ -5915,7 +5922,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5923,7 +5930,7 @@
         <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -5935,7 +5942,7 @@
         <v>65535</v>
       </c>
       <c r="I71" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5943,7 +5950,7 @@
         <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C72">
         <v>20</v>
@@ -5964,7 +5971,7 @@
         <v>5</v>
       </c>
       <c r="I72" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5972,7 +5979,7 @@
         <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C73">
         <v>20</v>
@@ -5993,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -6001,7 +6008,7 @@
         <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -6013,7 +6020,7 @@
         <v>65535</v>
       </c>
       <c r="I74" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -6021,7 +6028,7 @@
         <v>141</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C75">
         <v>20</v>
@@ -6042,7 +6049,7 @@
         <v>5</v>
       </c>
       <c r="I75" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -6050,7 +6057,7 @@
         <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C76">
         <v>20</v>
@@ -6071,7 +6078,7 @@
         <v>5</v>
       </c>
       <c r="I76" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6079,7 +6086,7 @@
         <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -6091,7 +6098,7 @@
         <v>65535</v>
       </c>
       <c r="I77" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -6099,7 +6106,7 @@
         <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C78">
         <v>20</v>
@@ -6120,7 +6127,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6128,7 +6135,7 @@
         <v>142</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79">
         <v>20</v>
@@ -6149,7 +6156,7 @@
         <v>5</v>
       </c>
       <c r="I79" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -6157,7 +6164,7 @@
         <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -6169,7 +6176,7 @@
         <v>65535</v>
       </c>
       <c r="I80" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -6177,7 +6184,7 @@
         <v>143</v>
       </c>
       <c r="B81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C81">
         <v>20</v>
@@ -6198,7 +6205,7 @@
         <v>5</v>
       </c>
       <c r="I81" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -6206,7 +6213,7 @@
         <v>143</v>
       </c>
       <c r="B82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C82">
         <v>19</v>
@@ -6227,7 +6234,7 @@
         <v>5</v>
       </c>
       <c r="I82" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -6235,7 +6242,7 @@
         <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -6247,7 +6254,7 @@
         <v>65535</v>
       </c>
       <c r="I83" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -6255,7 +6262,7 @@
         <v>144</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C84">
         <v>20</v>
@@ -6276,7 +6283,7 @@
         <v>5</v>
       </c>
       <c r="I84" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6284,7 +6291,7 @@
         <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C85">
         <v>20</v>
@@ -6305,7 +6312,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6313,7 +6320,7 @@
         <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -6325,7 +6332,7 @@
         <v>65535</v>
       </c>
       <c r="I86" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -6333,7 +6340,7 @@
         <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C87">
         <v>20</v>
@@ -6354,7 +6361,7 @@
         <v>5</v>
       </c>
       <c r="I87" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -6362,7 +6369,7 @@
         <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C88">
         <v>20</v>
@@ -6383,7 +6390,7 @@
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6391,7 +6398,7 @@
         <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -6403,7 +6410,7 @@
         <v>65535</v>
       </c>
       <c r="I89" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6411,7 +6418,7 @@
         <v>146</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -6432,7 +6439,7 @@
         <v>7</v>
       </c>
       <c r="I90" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6440,7 +6447,7 @@
         <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -6461,7 +6468,7 @@
         <v>7</v>
       </c>
       <c r="I91" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6469,7 +6476,7 @@
         <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -6481,7 +6488,7 @@
         <v>65535</v>
       </c>
       <c r="I92" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,7 +6496,7 @@
         <v>147</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C93">
         <v>20</v>
@@ -6510,7 +6517,7 @@
         <v>7</v>
       </c>
       <c r="I93" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6518,7 +6525,7 @@
         <v>147</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -6539,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="I94" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -6547,7 +6554,7 @@
         <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -6559,7 +6566,7 @@
         <v>65535</v>
       </c>
       <c r="I95" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -6567,7 +6574,7 @@
         <v>148</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C96">
         <v>20</v>
@@ -6588,7 +6595,7 @@
         <v>7</v>
       </c>
       <c r="I96" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -6596,7 +6603,7 @@
         <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C97">
         <v>20</v>
@@ -6617,7 +6624,7 @@
         <v>7</v>
       </c>
       <c r="I97" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -6625,7 +6632,7 @@
         <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -6637,7 +6644,7 @@
         <v>65535</v>
       </c>
       <c r="I98" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -6645,7 +6652,7 @@
         <v>149</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C99">
         <v>20</v>
@@ -6666,7 +6673,7 @@
         <v>7</v>
       </c>
       <c r="I99" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -6674,7 +6681,7 @@
         <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C100">
         <v>20</v>
@@ -6695,7 +6702,7 @@
         <v>7</v>
       </c>
       <c r="I100" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -6703,7 +6710,7 @@
         <v>150</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -6715,7 +6722,7 @@
         <v>65535</v>
       </c>
       <c r="I101" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -6723,7 +6730,7 @@
         <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -6744,7 +6751,7 @@
         <v>7</v>
       </c>
       <c r="I102" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -6752,7 +6759,7 @@
         <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C103">
         <v>20</v>
@@ -6773,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="I103" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -6781,7 +6788,7 @@
         <v>151</v>
       </c>
       <c r="B104" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -6793,7 +6800,7 @@
         <v>65535</v>
       </c>
       <c r="I104" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -6801,7 +6808,7 @@
         <v>151</v>
       </c>
       <c r="B105" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C105">
         <v>20</v>
@@ -6822,7 +6829,7 @@
         <v>7</v>
       </c>
       <c r="I105" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -6830,7 +6837,7 @@
         <v>151</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C106">
         <v>20</v>
@@ -6851,7 +6858,7 @@
         <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -6859,7 +6866,7 @@
         <v>152</v>
       </c>
       <c r="B107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6871,7 +6878,7 @@
         <v>65535</v>
       </c>
       <c r="I107" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -6879,28 +6886,28 @@
         <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C108">
         <v>20</v>
       </c>
       <c r="D108">
-        <v>0.88</v>
+        <v>87.27</v>
       </c>
       <c r="E108">
-        <v>0.11</v>
+        <v>11.57</v>
       </c>
       <c r="F108">
-        <v>0.92</v>
+        <v>86.36</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I108" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -6908,28 +6915,106 @@
         <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C109">
         <v>20</v>
       </c>
       <c r="D109">
-        <v>0.87</v>
+        <v>87.27</v>
       </c>
       <c r="E109">
-        <v>0.14000000000000001</v>
+        <v>12.65</v>
       </c>
       <c r="F109">
-        <v>0.89</v>
+        <v>90.91</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I109" t="s">
-        <v>335</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>153</v>
+      </c>
+      <c r="B110" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>65535</v>
+      </c>
+      <c r="H110">
+        <v>65535</v>
+      </c>
+      <c r="I110" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>88.12</v>
+      </c>
+      <c r="E111">
+        <v>13.74</v>
+      </c>
+      <c r="F111">
+        <v>87.5</v>
+      </c>
+      <c r="G111">
+        <v>50</v>
+      </c>
+      <c r="H111">
+        <v>100</v>
+      </c>
+      <c r="I111" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>153</v>
+      </c>
+      <c r="B112" t="s">
+        <v>265</v>
+      </c>
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>87.5</v>
+      </c>
+      <c r="E112">
+        <v>20.28</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112">
+        <v>25</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -6952,39 +7037,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="I1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7007,10 +7092,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -7036,10 +7121,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -7065,10 +7150,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -7094,10 +7179,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -7123,10 +7208,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -7152,10 +7237,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -7181,10 +7266,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -7210,10 +7295,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -7239,10 +7324,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B11" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -7268,10 +7353,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -7297,10 +7382,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -7326,10 +7411,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -7355,10 +7440,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -7384,10 +7469,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B16" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -7413,10 +7498,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -7442,10 +7527,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -7471,10 +7556,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -7500,10 +7585,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B20" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -7529,10 +7614,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B21" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -7558,10 +7643,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B22" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -7587,10 +7672,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C23">
         <v>20</v>
@@ -7616,10 +7701,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B24" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C24">
         <v>20</v>
@@ -7645,10 +7730,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B25" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C25">
         <v>20</v>
@@ -7674,10 +7759,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C26">
         <v>20</v>
@@ -7703,10 +7788,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B27" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -7732,10 +7817,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -7761,10 +7846,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -7790,10 +7875,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C30">
         <v>20</v>
@@ -7819,10 +7904,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B31" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -7848,10 +7933,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B32" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C32">
         <v>20</v>
@@ -7877,10 +7962,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C33">
         <v>20</v>
@@ -7906,10 +7991,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C34">
         <v>20</v>
@@ -7935,10 +8020,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B35" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C35">
         <v>20</v>
@@ -7964,10 +8049,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C36">
         <v>20</v>
@@ -7993,10 +8078,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C37">
         <v>20</v>
@@ -8022,10 +8107,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C38">
         <v>20</v>
@@ -8051,10 +8136,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -8080,10 +8165,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -8109,10 +8194,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C41">
         <v>20</v>
@@ -8138,10 +8223,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -8167,10 +8252,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -8196,10 +8281,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -8225,10 +8310,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -8254,10 +8339,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -8283,10 +8368,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -8331,42 +8416,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="I1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="J1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8392,10 +8477,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -8424,10 +8509,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -8456,10 +8541,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -8488,10 +8573,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -8520,10 +8605,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -8552,10 +8637,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -8584,10 +8669,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -8616,10 +8701,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -8648,10 +8733,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -8680,10 +8765,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -8712,10 +8797,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8744,10 +8829,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8776,10 +8861,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8808,10 +8893,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8840,10 +8925,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -8872,10 +8957,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -8904,10 +8989,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -8936,10 +9021,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B20" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -8968,10 +9053,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9000,10 +9085,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -9032,10 +9117,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B23" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -9064,10 +9149,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -9096,10 +9181,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B25" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -9128,10 +9213,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -9160,10 +9245,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B27" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -9192,10 +9277,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -9224,10 +9309,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B29" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -9256,10 +9341,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -9288,10 +9373,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B31" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -9320,10 +9405,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -9352,10 +9437,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B33" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -9384,10 +9469,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B34" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -9416,10 +9501,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B35" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -9448,10 +9533,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -9480,10 +9565,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B37" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -9512,10 +9597,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -9544,10 +9629,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B39" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -9576,10 +9661,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -9608,10 +9693,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B41" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -9640,10 +9725,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -9672,10 +9757,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -9704,10 +9789,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -9736,10 +9821,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C45">
         <v>20</v>
@@ -9768,10 +9853,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B46" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -9800,10 +9885,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -9832,10 +9917,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -9864,10 +9949,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C49">
         <v>20</v>
@@ -9896,10 +9981,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C50">
         <v>20</v>
@@ -9928,10 +10013,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C51">
         <v>20</v>
@@ -9960,10 +10045,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C52">
         <v>20</v>
@@ -9992,10 +10077,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C53">
         <v>20</v>
@@ -10024,10 +10109,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -10056,10 +10141,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -10088,10 +10173,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B56" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C56">
         <v>20</v>
@@ -10120,10 +10205,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C57">
         <v>20</v>
@@ -10152,10 +10237,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -10184,10 +10269,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -10216,10 +10301,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B60" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C60">
         <v>20</v>
@@ -10248,10 +10333,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C61">
         <v>20</v>
@@ -10280,10 +10365,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B62" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C62">
         <v>20</v>
@@ -10312,10 +10397,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C63">
         <v>20</v>
@@ -10344,10 +10429,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C64">
         <v>20</v>
@@ -10376,10 +10461,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -10408,22 +10493,22 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B66" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C66">
         <v>20</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -10440,22 +10525,22 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B67" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C67">
         <v>20</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -10472,10 +10557,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B68" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C68">
         <v>20</v>
@@ -10484,10 +10569,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -10504,22 +10589,22 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C69">
         <v>20</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>19</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -10536,22 +10621,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B70" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C70">
         <v>20</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -10568,22 +10653,22 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C71">
         <v>20</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -10600,22 +10685,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B72" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C72">
         <v>20</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>19</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -10632,22 +10717,22 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B73" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C73">
         <v>20</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -10664,10 +10749,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C74">
         <v>20</v>
@@ -10676,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -10696,10 +10781,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B75" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C75">
         <v>20</v>
@@ -10708,10 +10793,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -10728,10 +10813,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C76">
         <v>20</v>
@@ -10740,10 +10825,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -10760,22 +10845,22 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B77" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C77">
         <v>20</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -10792,22 +10877,22 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B78" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C78">
         <v>20</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -10824,19 +10909,19 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B79" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C79">
         <v>20</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -10856,10 +10941,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C80">
         <v>20</v>
@@ -10888,22 +10973,22 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B81" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C81">
         <v>20</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -10920,22 +11005,22 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B82" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C82">
         <v>20</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>19</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -10952,22 +11037,22 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B83" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C83">
         <v>20</v>
       </c>
       <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>15</v>
+      </c>
+      <c r="F83">
         <v>2</v>
-      </c>
-      <c r="E83">
-        <v>17</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -10984,10 +11069,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B84" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C84">
         <v>20</v>
@@ -10996,10 +11081,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -11016,10 +11101,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B85" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C85">
         <v>20</v>
@@ -11048,10 +11133,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B86" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C86">
         <v>20</v>
@@ -11080,10 +11165,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B87" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C87">
         <v>20</v>
@@ -11112,10 +11197,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B88" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C88">
         <v>20</v>
@@ -11144,10 +11229,10 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B89" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C89">
         <v>20</v>
@@ -11176,10 +11261,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B90" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -11208,10 +11293,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B91" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -11240,10 +11325,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B92" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C92">
         <v>20</v>
@@ -11272,10 +11357,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B93" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C93">
         <v>20</v>
@@ -11304,10 +11389,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B94" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C94">
         <v>20</v>
@@ -11336,10 +11421,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B95" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C95">
         <v>20</v>
@@ -11368,10 +11453,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B96" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C96">
         <v>20</v>
@@ -11400,10 +11485,10 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B97" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C97">
         <v>20</v>
@@ -11432,10 +11517,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B98" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C98">
         <v>20</v>
@@ -11464,10 +11549,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B99" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C99">
         <v>20</v>
@@ -11496,10 +11581,10 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B100" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C100">
         <v>20</v>
@@ -11528,10 +11613,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B101" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C101">
         <v>20</v>
@@ -11560,10 +11645,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B102" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C102">
         <v>20</v>
@@ -11592,10 +11677,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B103" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C103">
         <v>19</v>
@@ -11624,10 +11709,10 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B104" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C104">
         <v>19</v>
@@ -11656,10 +11741,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B105" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C105">
         <v>19</v>
@@ -11688,10 +11773,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B106" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C106">
         <v>19</v>
@@ -11720,22 +11805,22 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B107" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C107">
         <v>20</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>16</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -11752,22 +11837,22 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B108" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C108">
         <v>20</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -11784,10 +11869,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B109" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C109">
         <v>20</v>
@@ -11796,10 +11881,10 @@
         <v>2</v>
       </c>
       <c r="E109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -11816,22 +11901,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B110" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C110">
         <v>20</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -11848,22 +11933,22 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B111" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C111">
         <v>20</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -11880,10 +11965,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B112" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C112">
         <v>20</v>
@@ -11912,10 +11997,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B113" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C113">
         <v>20</v>
@@ -11924,10 +12009,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -11944,22 +12029,22 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B114" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C114">
         <v>20</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -11976,22 +12061,22 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B115" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C115">
         <v>20</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -12008,19 +12093,19 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B116" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C116">
         <v>20</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -12040,22 +12125,22 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B117" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C117">
         <v>20</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -12072,22 +12157,22 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B118" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C118">
         <v>20</v>
       </c>
       <c r="D118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -12104,10 +12189,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B119" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C119">
         <v>20</v>
@@ -12116,10 +12201,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -12136,19 +12221,19 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B120" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C120">
         <v>20</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -12168,19 +12253,19 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B121" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C121">
         <v>20</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -12200,22 +12285,22 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B122" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C122">
         <v>20</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -12232,10 +12317,10 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B123" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C123">
         <v>20</v>
@@ -12244,10 +12329,10 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -12264,10 +12349,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B124" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C124">
         <v>20</v>
@@ -12276,10 +12361,10 @@
         <v>3</v>
       </c>
       <c r="E124">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -12296,10 +12381,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B125" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C125">
         <v>20</v>
@@ -12308,10 +12393,10 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -12370,93 +12455,93 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="E1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="J1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="K1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="L1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="N1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="O1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="P1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Q1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="R1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="S1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="T1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="U1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="V1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="W1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="X1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Y1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="Z1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AA1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -12536,10 +12621,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -12619,10 +12704,10 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -12702,10 +12787,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -12785,10 +12870,10 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -12868,10 +12953,10 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -12951,10 +13036,10 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B8" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -13034,10 +13119,10 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -13117,10 +13202,10 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -13200,10 +13285,10 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -13283,10 +13368,10 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -13366,10 +13451,10 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -13449,10 +13534,10 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -13532,10 +13617,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -13615,10 +13700,10 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B16" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -13698,10 +13783,10 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B17" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -13781,10 +13866,10 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B18" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -13864,10 +13949,10 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -13952,36 +14037,36 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="17" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="21" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="21" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" customWidth="1"/>
     <col min="25" max="25" width="7.5703125" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
     <col min="27" max="27" width="45" customWidth="1"/>
@@ -13990,96 +14075,96 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="C1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="E1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="F1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="G1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="H1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="I1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="J1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="K1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="L1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="M1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="N1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="O1" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="P1" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="Q1" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="R1" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="S1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="T1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="U1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="V1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="W1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="X1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="Y1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="Z1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="AA1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="AB1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AC1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14118,7 +14203,7 @@
         <v>0.396032959819202</v>
       </c>
       <c r="N2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O2">
         <v>5.0500847225267398</v>
@@ -14145,7 +14230,7 @@
         <v>0.396032959819202</v>
       </c>
       <c r="W2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X2">
         <v>1.5969770100003942</v>
@@ -14157,7 +14242,7 @@
         <v>4.50446337985514E-5</v>
       </c>
       <c r="AA2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB2">
         <v>0.64509735301376958</v>
@@ -14168,7 +14253,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -14207,7 +14292,7 @@
         <v>0.64705811989829498</v>
       </c>
       <c r="N3" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O3">
         <v>1.8545474712358401</v>
@@ -14234,7 +14319,7 @@
         <v>0.64705811989829498</v>
       </c>
       <c r="W3" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X3">
         <v>0.58645940380108574</v>
@@ -14246,7 +14331,7 @@
         <v>0.17485698340417399</v>
       </c>
       <c r="AA3" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB3">
         <v>0.21452283943803918</v>
@@ -14257,7 +14342,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -14296,7 +14381,7 @@
         <v>0.66253103204382302</v>
       </c>
       <c r="N4" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O4">
         <v>3.6224718298798901</v>
@@ -14323,7 +14408,7 @@
         <v>0.66253103204382302</v>
       </c>
       <c r="W4" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X4">
         <v>1.1455261742218459</v>
@@ -14335,7 +14420,7 @@
         <v>1.45080128652842E-3</v>
       </c>
       <c r="AA4" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB4">
         <v>0.50348973856344947</v>
@@ -14346,7 +14431,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -14385,7 +14470,7 @@
         <v>0.380269987190542</v>
       </c>
       <c r="N5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O5">
         <v>5.1279355870462497</v>
@@ -14412,7 +14497,7 @@
         <v>0.380269987190542</v>
       </c>
       <c r="W5" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X5">
         <v>1.6215956149698778</v>
@@ -14424,7 +14509,7 @@
         <v>1.22596871166057E-5</v>
       </c>
       <c r="AA5" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB5">
         <v>0.69141901973458986</v>
@@ -14435,7 +14520,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -14474,7 +14559,7 @@
         <v>0.68210201428726003</v>
       </c>
       <c r="N6" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O6">
         <v>2.3456901848792602</v>
@@ -14501,7 +14586,7 @@
         <v>0.68210201428726003</v>
       </c>
       <c r="W6" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X6">
         <v>0.74177236693199289</v>
@@ -14513,7 +14598,7 @@
         <v>0.30241271147431897</v>
       </c>
       <c r="AA6" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB6">
         <v>0.16305861375668723</v>
@@ -14524,7 +14609,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -14563,7 +14648,7 @@
         <v>0.68776908609610699</v>
       </c>
       <c r="N7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O7">
         <v>2.83525392376754</v>
@@ -14590,7 +14675,7 @@
         <v>0.68776908609610699</v>
       </c>
       <c r="W7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X7">
         <v>0.89658601440348284</v>
@@ -14602,7 +14687,7 @@
         <v>5.1759182655123102E-2</v>
       </c>
       <c r="AA7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB7">
         <v>0.30755225619501142</v>
@@ -14613,7 +14698,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -14652,7 +14737,7 @@
         <v>0.31539448982270801</v>
       </c>
       <c r="N8" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O8">
         <v>2.8535691936340299</v>
@@ -14679,7 +14764,7 @@
         <v>0.31539448982270801</v>
       </c>
       <c r="W8" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X8">
         <v>0.9023778112773575</v>
@@ -14691,7 +14776,7 @@
         <v>9.1017153259293599E-4</v>
       </c>
       <c r="AA8" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB8">
         <v>0.52445038269519728</v>
@@ -14702,7 +14787,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -14741,7 +14826,7 @@
         <v>0.68470124103413499</v>
       </c>
       <c r="N9" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O9">
         <v>3.14005564931175</v>
@@ -14768,7 +14853,7 @@
         <v>0.68470124103413499</v>
       </c>
       <c r="W9" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X9">
         <v>0.99297278315040594</v>
@@ -14780,7 +14865,7 @@
         <v>0.102482632076537</v>
       </c>
       <c r="AA9" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB9">
         <v>0.25818972058968914</v>
@@ -14791,7 +14876,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -14830,7 +14915,7 @@
         <v>0.33654080585812501</v>
       </c>
       <c r="N10" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O10">
         <v>2.1801029385069599</v>
@@ -14857,7 +14942,7 @@
         <v>0.33074247038663102</v>
       </c>
       <c r="W10" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X10">
         <v>0.68638809303902493</v>
@@ -14869,7 +14954,7 @@
         <v>0.105177022120367</v>
       </c>
       <c r="AA10" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB10">
         <v>0.2561851695971008</v>
@@ -14880,7 +14965,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -14919,7 +15004,7 @@
         <v>0.22450689646390901</v>
       </c>
       <c r="N11" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O11">
         <v>-0.52207673931887499</v>
@@ -14946,7 +15031,7 @@
         <v>0.22682690821674201</v>
       </c>
       <c r="W11" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X11">
         <v>0.16898172378525556</v>
@@ -14958,7 +15043,7 @@
         <v>0.87319019014323696</v>
       </c>
       <c r="AA11" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB11">
         <v>2.5236177726795719E-2</v>
@@ -14969,7 +15054,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -15008,7 +15093,7 @@
         <v>0.30241689459883597</v>
       </c>
       <c r="N12" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O12">
         <v>6.1268250232593302E-2</v>
@@ -15035,7 +15120,7 @@
         <v>0.30066229346597301</v>
       </c>
       <c r="W12" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X12">
         <v>1.9514116756334503E-2</v>
@@ -15047,7 +15132,7 @@
         <v>0.80051963468421306</v>
       </c>
       <c r="AA12" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB12">
         <v>3.9951370874940655E-2</v>
@@ -15058,7 +15143,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -15097,7 +15182,7 @@
         <v>0.15941600737970099</v>
       </c>
       <c r="N13" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O13">
         <v>2.9274299718436598</v>
@@ -15124,7 +15209,7 @@
         <v>0.15941600737970099</v>
       </c>
       <c r="W13" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X13">
         <v>0.92573464016685547</v>
@@ -15136,7 +15221,7 @@
         <v>9.3528011804601997E-3</v>
       </c>
       <c r="AA13" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB13">
         <v>0.41091926974329041</v>
@@ -15147,7 +15232,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -15186,7 +15271,7 @@
         <v>0.35150054278613502</v>
       </c>
       <c r="N14" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O14">
         <v>1.2802256190932699</v>
@@ -15213,7 +15298,7 @@
         <v>0.35150054278613502</v>
       </c>
       <c r="W14" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X14">
         <v>0.40484288752338826</v>
@@ -15225,7 +15310,7 @@
         <v>0.36867522911810902</v>
       </c>
       <c r="AA14" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB14">
         <v>0.14213768163434445</v>
@@ -15236,7 +15321,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -15275,7 +15360,7 @@
         <v>0.27444621273431802</v>
       </c>
       <c r="N15" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O15">
         <v>0.865379039607719</v>
@@ -15302,7 +15387,7 @@
         <v>0.27444621273431802</v>
       </c>
       <c r="W15" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X15">
         <v>0.27365688045294567</v>
@@ -15314,7 +15399,7 @@
         <v>0.20862829086514201</v>
       </c>
       <c r="AA15" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB15">
         <v>0.19880389459401221</v>
@@ -15325,7 +15410,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -15364,7 +15449,7 @@
         <v>0.34549497292404902</v>
       </c>
       <c r="N16" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O16">
         <v>2.93057809620454</v>
@@ -15391,7 +15476,7 @@
         <v>0.34549497292404902</v>
       </c>
       <c r="W16" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X16">
         <v>0.92673016450064072</v>
@@ -15403,7 +15488,7 @@
         <v>5.83133563529403E-3</v>
       </c>
       <c r="AA16" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB16">
         <v>0.43593858632301929</v>
@@ -15414,7 +15499,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -15453,7 +15538,7 @@
         <v>0.344187321499067</v>
       </c>
       <c r="N17" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O17">
         <v>1.2105811011629499</v>
@@ -15480,7 +15565,7 @@
         <v>0.344187321499066</v>
       </c>
       <c r="W17" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X17">
         <v>0.38281935720296323</v>
@@ -15492,7 +15577,7 @@
         <v>0.22093426890567699</v>
       </c>
       <c r="AA17" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB17">
         <v>0.19353892012391696</v>
@@ -15503,7 +15588,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -15542,7 +15627,7 @@
         <v>0.444705698068663</v>
       </c>
       <c r="N18" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O18">
         <v>0.56216954513004802</v>
@@ -15569,7 +15654,7 @@
         <v>0.444705698068663</v>
       </c>
       <c r="W18" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X18">
         <v>0.17777361937917713</v>
@@ -15581,7 +15666,7 @@
         <v>0.69664720667136004</v>
       </c>
       <c r="AA18" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB18">
         <v>6.1640753268154928E-2</v>
@@ -15592,7 +15677,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -15631,7 +15716,7 @@
         <v>0.33288346836208599</v>
       </c>
       <c r="N19" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O19">
         <v>2.9539866854058898</v>
@@ -15658,7 +15743,7 @@
         <v>0.33288346836208599</v>
       </c>
       <c r="W19" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X19">
         <v>0.934132610369387</v>
@@ -15670,7 +15755,7 @@
         <v>1.30747383637343E-2</v>
       </c>
       <c r="AA19" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AB19">
         <v>0.39239550072827634</v>
@@ -15681,7 +15766,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -15690,88 +15775,177 @@
         <v>38</v>
       </c>
       <c r="D20">
-        <v>8.9664936290701908E-3</v>
+        <v>0.1417910447761184</v>
       </c>
       <c r="E20">
-        <v>0.92505737994133586</v>
+        <v>0.7086013802674207</v>
       </c>
       <c r="F20">
-        <v>6.7687703988837403E-2</v>
+        <v>2.89548530590757E-15</v>
       </c>
       <c r="G20">
         <v>38</v>
       </c>
       <c r="H20">
-        <v>0.94638914468850299</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="I20">
-        <v>-7.6073307597532003E-2</v>
+        <v>-7.7621841392401303E-2</v>
       </c>
       <c r="J20">
-        <v>8.1336465492268903E-2</v>
+        <v>7.7621841392401594E-2</v>
       </c>
       <c r="K20">
-        <v>0.87631578947368405</v>
+        <v>0.87272727272727302</v>
       </c>
       <c r="L20">
-        <v>0.87368421052631595</v>
+        <v>0.87272727272727302</v>
       </c>
       <c r="M20">
-        <v>3.88782421664415E-2</v>
+        <v>3.8343244994543897E-2</v>
       </c>
       <c r="N20" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="O20">
-        <v>6.7687703988837403E-2</v>
+        <v>2.89548530590757E-15</v>
       </c>
       <c r="P20">
-        <v>35.892040778060398</v>
+        <v>37.702980615576998</v>
       </c>
       <c r="Q20">
-        <v>0.94640991065415703</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="R20">
-        <v>-7.6225386634504497E-2</v>
+        <v>-7.7641927647577602E-2</v>
       </c>
       <c r="S20">
-        <v>8.14885445292413E-2</v>
+        <v>7.7641927647577796E-2</v>
       </c>
       <c r="T20">
-        <v>0.87631578947368405</v>
+        <v>0.87272727272727302</v>
       </c>
       <c r="U20">
-        <v>0.87368421052631595</v>
+        <v>0.87272727272727302</v>
       </c>
       <c r="V20">
-        <v>3.88782421664415E-2</v>
+        <v>3.8343244994543897E-2</v>
       </c>
       <c r="W20" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="X20">
-        <v>2.1404731419199057E-2</v>
+        <v>9.1563284982173058E-16</v>
       </c>
       <c r="Y20">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Z20">
-        <v>0.81487878119771895</v>
+        <v>0.87758544319781495</v>
       </c>
       <c r="AA20" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB20">
+        <v>2.4354409352352623E-2</v>
+      </c>
+      <c r="AC20">
+        <v>4.872327064151772E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>605</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>0.3846153846153843</v>
+      </c>
+      <c r="E21">
+        <v>0.53884507833146889</v>
+      </c>
+      <c r="F21">
+        <v>0.11411668691153599</v>
+      </c>
+      <c r="G21">
+        <v>38</v>
+      </c>
+      <c r="H21">
+        <v>0.90974611781074199</v>
+      </c>
+      <c r="I21">
+        <v>-0.104623035897529</v>
+      </c>
+      <c r="J21">
+        <v>0.117123035897529</v>
+      </c>
+      <c r="K21">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="L21">
+        <v>0.875</v>
+      </c>
+      <c r="M21">
+        <v>5.4768502040766803E-2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>619</v>
+      </c>
+      <c r="O21">
+        <v>0.11411668691153599</v>
+      </c>
+      <c r="P21">
+        <v>33.406767761284797</v>
+      </c>
+      <c r="Q21">
+        <v>0.90982839321837505</v>
+      </c>
+      <c r="R21">
+        <v>-0.105125835815904</v>
+      </c>
+      <c r="S21">
+        <v>0.117625835815904</v>
+      </c>
+      <c r="T21">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="U21">
+        <v>0.875</v>
+      </c>
+      <c r="V21">
+        <v>5.4768502040766803E-2</v>
+      </c>
+      <c r="W21" t="s">
         <v>629</v>
       </c>
-      <c r="AB20">
-        <v>3.7020277859068612E-2</v>
-      </c>
-      <c r="AC20">
-        <v>7.4091344255225899E-2</v>
+      <c r="X21">
+        <v>3.6086864967277817E-2</v>
+      </c>
+      <c r="Y21">
+        <v>176.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.50061710626489198</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB21">
+        <v>0.10649271903958159</v>
+      </c>
+      <c r="AC21">
+        <v>0.21420351016255679</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC20" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <autoFilter ref="A1:AC21" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <conditionalFormatting sqref="E1:E1048576 H1:H1048576 Q1:Q1048576 Z1:Z1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
